--- a/images/regression_results.xlsx
+++ b/images/regression_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genevievelyons/Intro to DS/bst260-final-proj/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798AF5DB-3C3F-794D-98D0-21F9E8864449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FD655C-3E4E-E04E-94BA-230E23666340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16080" xr2:uid="{24117D53-3CBC-7C4D-993E-5A997658A8D1}"/>
   </bookViews>
@@ -762,433 +762,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEFB6D-119B-3E4F-B951-0B55B53BD129}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="3" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="5">
+      <c r="C3" s="12"/>
+      <c r="D3" s="5">
         <v>-1.56</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="5">
+      <c r="C4" s="13"/>
+      <c r="D4" s="5">
         <v>0.4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+    <row r="5" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="5">
+      <c r="C5" s="13"/>
+      <c r="D5" s="5">
         <v>-0.01</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="6" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="5">
+      <c r="C6" s="13"/>
+      <c r="D6" s="5">
         <v>-0.27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D7" s="5">
         <v>-0.12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F7" s="7">
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D8" s="6">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="15">
+      <c r="F8" s="15">
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D9" s="5">
         <v>0.1</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F9" s="7">
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D10" s="5">
         <v>-0.01</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F10" s="7">
         <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D11" s="5">
         <v>-0.17</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F11" s="7">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D12" s="5">
         <v>-0.06</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F12" s="7">
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D13" s="5">
         <v>-0.09</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F13" s="7">
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D14" s="5">
         <v>-0.09</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F14" s="7">
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+    <row r="15" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="5">
+      <c r="C15" s="12"/>
+      <c r="D15" s="5">
         <v>-0.01</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="16">
+      <c r="F15" s="16">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+    <row r="16" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="5">
+      <c r="C16" s="12"/>
+      <c r="D16" s="5">
         <v>-0.03</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F16" s="7">
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D17" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="16">
+      <c r="F17" s="16">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D18" s="5">
         <v>0.08</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="16">
+      <c r="F18" s="16">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="10"/>
+      <c r="C19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D19" s="5">
         <v>0.02</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F19" s="7">
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
         <v>0</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="F20" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D21" s="5">
         <v>-0.09</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F21" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="5">
+      <c r="D22" s="5">
         <v>-0.09</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D23" s="5">
         <v>0.08</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="16">
+      <c r="F23" s="16">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="5">
+      <c r="C24" s="12"/>
+      <c r="D24" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="16">
+      <c r="F24" s="16">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
         <v>-1.53</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="F25" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
         <v>0.02</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="16">
+      <c r="F26" s="16">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="14">
+      <c r="C27" s="3"/>
+      <c r="D27" s="14">
         <v>3084</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/images/regression_results.xlsx
+++ b/images/regression_results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genevievelyons/Intro to DS/bst260-final-proj/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FD655C-3E4E-E04E-94BA-230E23666340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ED1A34-3261-024C-956B-096D0C1195F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16080" xr2:uid="{24117D53-3CBC-7C4D-993E-5A997658A8D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Postoperative" sheetId="1" r:id="rId1"/>
+    <sheet name="Responsiveness" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>Predictors</t>
   </si>
@@ -164,15 +165,9 @@
     <t>Intercept</t>
   </si>
   <si>
-    <t>Inpatient Spend</t>
-  </si>
-  <si>
     <t>Healthcare Policy Focused State</t>
   </si>
   <si>
-    <t>Inpatient Spend - Squared (IP^2)</t>
-  </si>
-  <si>
     <t>Government - Hospital District or Authority</t>
   </si>
   <si>
@@ -239,7 +234,85 @@
     <t>Percent of Population without Health Insurance</t>
   </si>
   <si>
-    <t>Inpatient Spend * Healthcare Policy Focused State Interaction</t>
+    <t>0.248 / 0.242</t>
+  </si>
+  <si>
+    <t>Inpatient Spend per Claim</t>
+  </si>
+  <si>
+    <t>Inpatient Spend per Claim - Squared (IP^2)</t>
+  </si>
+  <si>
+    <t>Inpatient Spend per Claim * Healthcare Policy Focused State Interaction</t>
+  </si>
+  <si>
+    <t>Total Spend per Claim</t>
+  </si>
+  <si>
+    <t>Total Spend per Claim - Squared (Total^2)</t>
+  </si>
+  <si>
+    <t>(88.33,103.96)</t>
+  </si>
+  <si>
+    <t>(-3.27,-1.81)</t>
+  </si>
+  <si>
+    <t>(0.03,0.07)</t>
+  </si>
+  <si>
+    <t>(-2.50,4.13)</t>
+  </si>
+  <si>
+    <t>(-3.60,3.11)</t>
+  </si>
+  <si>
+    <t>(-3.68,3.83)</t>
+  </si>
+  <si>
+    <t>(0.87,9.30)</t>
+  </si>
+  <si>
+    <t>(-2.29,4.24)</t>
+  </si>
+  <si>
+    <t>(-2.54,4.09)</t>
+  </si>
+  <si>
+    <t>(-1.91,4.67)</t>
+  </si>
+  <si>
+    <t>(-2.50,3.99)</t>
+  </si>
+  <si>
+    <t>(0.75,1.10)</t>
+  </si>
+  <si>
+    <t>(-3.05,-0.89)</t>
+  </si>
+  <si>
+    <t>(-0.62,0.73)</t>
+  </si>
+  <si>
+    <t>(-0.30,1.13)</t>
+  </si>
+  <si>
+    <t>(0.10,1.62)</t>
+  </si>
+  <si>
+    <t>(-3.38,-1.92)</t>
+  </si>
+  <si>
+    <t>(-1.05,0.33)</t>
+  </si>
+  <si>
+    <t>(-2.90,-1.45)</t>
+  </si>
+  <si>
+    <t>(-0.01,1.43)</t>
+  </si>
+  <si>
+    <t>(-11.38,2.48)</t>
   </si>
 </sst>
 </file>
@@ -772,7 +845,7 @@
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" style="1" customWidth="1"/>
     <col min="4" max="6" width="15.83203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -810,7 +883,7 @@
     </row>
     <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="5">
@@ -825,7 +898,7 @@
     </row>
     <row r="5" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="5">
@@ -840,7 +913,7 @@
     </row>
     <row r="6" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="5">
@@ -855,10 +928,10 @@
     </row>
     <row r="7" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5">
         <v>-0.12</v>
@@ -873,7 +946,7 @@
     <row r="8" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6">
         <v>-7.0000000000000007E-2</v>
@@ -888,7 +961,7 @@
     <row r="9" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5">
         <v>0.1</v>
@@ -903,7 +976,7 @@
     <row r="10" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5">
         <v>-0.01</v>
@@ -918,7 +991,7 @@
     <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5">
         <v>-0.17</v>
@@ -933,7 +1006,7 @@
     <row r="12" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5">
         <v>-0.06</v>
@@ -948,7 +1021,7 @@
     <row r="13" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5">
         <v>-0.09</v>
@@ -963,7 +1036,7 @@
     <row r="14" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5">
         <v>-0.09</v>
@@ -977,7 +1050,7 @@
     </row>
     <row r="15" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="5">
@@ -992,7 +1065,7 @@
     </row>
     <row r="16" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="5">
@@ -1007,10 +1080,10 @@
     </row>
     <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5">
         <v>7.0000000000000007E-2</v>
@@ -1025,7 +1098,7 @@
     <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5">
         <v>0.08</v>
@@ -1040,7 +1113,7 @@
     <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5">
         <v>0.02</v>
@@ -1053,10 +1126,10 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="5"/>
+      <c r="B20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="12"/>
       <c r="D20" s="5">
         <v>0</v>
       </c>
@@ -1069,10 +1142,10 @@
     </row>
     <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5">
         <v>-0.09</v>
@@ -1087,7 +1160,7 @@
     <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="5">
         <v>-0.09</v>
@@ -1102,7 +1175,7 @@
     <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="5">
         <v>0.08</v>
@@ -1116,7 +1189,7 @@
     </row>
     <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="5">
@@ -1131,7 +1204,7 @@
     </row>
     <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
@@ -1146,7 +1219,7 @@
     </row>
     <row r="26" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5">
@@ -1180,10 +1253,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -1194,4 +1268,410 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70B7B3A-02EB-0840-A910-2FC9165CE426}">
+  <dimension ref="B1:F26"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="5">
+        <v>96.15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="5">
+        <v>-2.54</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-0.25</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5.09</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5">
+        <v>-1.97</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="10"/>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-2.65</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.36</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
+      <c r="C22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-2.17</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="16">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5">
+        <v>-4.45</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="14">
+        <v>2753</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>